--- a/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
+++ b/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.530042953386626</v>
+        <v>0.469957046613374</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6137986929118679</v>
+        <v>0.386201307088132</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.740226761322946</v>
+        <v>0.259773238677054</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0130536939518501</v>
+        <v>0.98694630604815</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2908,42 +2908,42 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0109221537177649</v>
+        <v>0.029632639192415</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0301507537688442</v>
+        <v>0.0394736842105263</v>
       </c>
       <c r="H28" t="n">
-        <v>0.467336683417085</v>
+        <v>0.407894736842105</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.4</v>
+        <v>1.385</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0333054711246201</v>
+        <v>-0.0309193281602121</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0499321520792169</v>
+        <v>-0.0611467633928572</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0077700268920701</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.37896222318715</v>
+        <v>-2.23244246644131</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,14 +2995,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9.770396285860069e-05</v>
+        <v>0.184563127455429</v>
       </c>
       <c r="G29" t="n">
-        <v>0.162280701754386</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.149122807017544</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01</v>
+        <v>10.575</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0002851288056206</v>
+        <v>-0.0116321656050956</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001408283895645</v>
+        <v>-0.039258160244404</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0004238310886827</v>
+        <v>0.0088908753846349</v>
       </c>
       <c r="N29" t="n">
-        <v>2.85128805620608</v>
+        <v>-0.109996837873244</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3086,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.55142635563812e-08</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.142045454545455</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0178485721450498</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0304347826086957</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.595652173913043</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
       <c r="J30" t="n">
-        <v>99</v>
+        <v>0.01</v>
       </c>
       <c r="K30" t="n">
-        <v>2.00870760769936</v>
+        <v>0.0006162823397075</v>
       </c>
       <c r="L30" t="n">
-        <v>0.501650776461485</v>
+        <v>0.0004309892086598</v>
       </c>
       <c r="M30" t="n">
-        <v>3.4815324507285</v>
+        <v>0.0008127358421099</v>
       </c>
       <c r="N30" t="n">
-        <v>2.02899758353471</v>
+        <v>6.16282339707536</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.996824967104345</v>
+        <v>0.0928017567664384</v>
       </c>
       <c r="G31" t="n">
-        <v>0.869565217391304</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H31" t="n">
-        <v>0.173913043478261</v>
+        <v>0.657142857142857</v>
       </c>
       <c r="I31" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>2.15118753739735</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-0.443690615612251</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>5.01717032967033</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.15118753739735</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3268,43 +3268,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.225349000894177</v>
+        <v>0.479182474281164</v>
       </c>
       <c r="G32" t="n">
-        <v>0.167464114832536</v>
+        <v>0.92258064516129</v>
       </c>
       <c r="H32" t="n">
-        <v>0.617224880382775</v>
+        <v>0.12258064516129</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>0.136</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0003515069639004</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0008748316165215</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,43 +3359,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.435912010349762</v>
+        <v>0.0347711018972632</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0087719298245614</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6754385964912279</v>
+        <v>0.09740259740259739</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1445</v>
+        <v>0.00225</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0006660209118071</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0010003851411512</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0116186646635903</v>
+        <v>0.137348739212474</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.165605095541401</v>
       </c>
       <c r="H34" t="n">
-        <v>0.801724137931034</v>
+        <v>0.713375796178344</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.55</v>
+        <v>0.136</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0450216065899783</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0133259764279548</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0691380257342125</v>
+        <v>0.0029113418071086</v>
       </c>
       <c r="N34" t="n">
-        <v>1.76555319960699</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,14 +3541,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3556,31 +3556,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.82177988301585e-24</v>
+        <v>0.805752333809151</v>
       </c>
       <c r="G35" t="n">
-        <v>0.297376093294461</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.102040816326531</v>
+        <v>0.536585365853659</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.007</v>
+        <v>7.7</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0003252931571916</v>
+        <v>0.0063098319254004</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0002654465395163</v>
+        <v>-0.0049823786276029</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0003809679926199</v>
+        <v>0.0151198511305324</v>
       </c>
       <c r="N35" t="n">
-        <v>4.64704510273755</v>
+        <v>0.08194586916104429</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,11 +3618,7 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3632,14 +3628,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3647,31 +3643,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.999999999999752</v>
+        <v>0.212567039481106</v>
       </c>
       <c r="G36" t="n">
-        <v>0.707165109034268</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H36" t="n">
-        <v>0.258566978193146</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>0.142</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0005041525525445</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0004805281602053</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0022051956560686</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.355037008834185</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3676,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3711,7 +3707,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3723,46 +3719,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.243122904548317</v>
+        <v>0.372511080519884</v>
       </c>
       <c r="G37" t="n">
-        <v>0.12962962962963</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H37" t="n">
-        <v>0.438271604938272</v>
+        <v>0.5284090909090911</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>9.99589490968802e-05</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0001434521367908</v>
+        <v>-0.0019991789819376</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0005983109137919</v>
+        <v>0.003257368433041</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.0356996246774572</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3810,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.777730158525077</v>
+        <v>0.296686559642775</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0058309037900874</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H38" t="n">
-        <v>0.58600583090379</v>
+        <v>0.335227272727273</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.14</v>
+        <v>0.021</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0002626186367558</v>
+        <v>9.416192380512859e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0007262391627736</v>
+        <v>-0.0002044560079993</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002850484295973</v>
+        <v>0.0004196667943316</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.187584740539874</v>
+        <v>0.448390113357755</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3909,7 +3905,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3920,31 +3916,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.0367904345701481</v>
+        <v>0.128106949753546</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.679190751445087</v>
+        <v>0.869318181818182</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.495</v>
+        <v>2.6</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0187090693653065</v>
+        <v>0.0386992941920814</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0008118944463122001</v>
+        <v>-0.0140084893402907</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0373362689620811</v>
+        <v>0.07708117762456131</v>
       </c>
       <c r="N39" t="n">
-        <v>0.749862499611484</v>
+        <v>1.48843439200313</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3953,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3996,14 +3992,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4011,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0109221537177649</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0301507537688442</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.467336683417085</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>0.364</v>
+        <v>1.4</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.028559284775534</v>
+        <v>-0.0333054711246201</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.227458210591853</v>
+        <v>-0.0499321520792169</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0278149063866214</v>
+        <v>-0.0077700268920701</v>
       </c>
       <c r="N40" t="n">
-        <v>-7.84595735591595</v>
+        <v>-2.37896222318715</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4044,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4073,7 +4069,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4083,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4098,31 +4098,31 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>9.770396285860069e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0.149122807017544</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>107</v>
+        <v>0.01</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.127240750742642</v>
+        <v>0.0002851288056206</v>
       </c>
       <c r="L41" t="n">
-        <v>-9.185079586212449</v>
+        <v>0.0001408283895645</v>
       </c>
       <c r="M41" t="n">
-        <v>4.89140309130776</v>
+        <v>0.0004238310886827</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.118916589479105</v>
+        <v>2.85128805620608</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,7 +4160,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4170,14 +4174,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4185,31 +4189,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0178485721450498</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.0304347826086957</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0.595652173913043</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>4.89</v>
+        <v>99</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.167949141824516</v>
+        <v>2.00870760769936</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.39806316181092</v>
+        <v>0.501650776461485</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0937055764511984</v>
+        <v>3.4815324507285</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.43454277759746</v>
+        <v>2.02899758353471</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4218,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4247,7 +4251,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4257,46 +4265,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.024548990804633</v>
+        <v>0.996824967104345</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>0.462</v>
+        <v>0.005</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.022999765037594</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0385351779000422</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.012104229777703</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.97830412069134</v>
+        <v>0</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4305,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4334,7 +4342,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4344,43 +4356,43 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.225349000894177</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.167464114832536</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8</v>
+        <v>0.617224880382775</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>106</v>
+        <v>0.136</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-1.37001792920593</v>
+        <v>-0.0003515069639004</v>
       </c>
       <c r="M44" t="n">
-        <v>0.788957663158164</v>
+        <v>0.0008748316165215</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4392,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4421,7 +4433,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4431,46 +4447,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.435912010349762</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.6754385964912279</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4.975</v>
+        <v>0.1445</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.137166240660637</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.247529330477176</v>
+        <v>-0.0006660209118071</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0364749986305724</v>
+        <v>0.0010003851411512</v>
       </c>
       <c r="N45" t="n">
-        <v>-2.75711036503793</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4479,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4508,7 +4524,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4518,14 +4538,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4533,31 +4553,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.07144099545777111</v>
+        <v>0.0116186646635903</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.75</v>
+        <v>0.801724137931034</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109</v>
+        <v>2.55</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.314176336444399</v>
+        <v>0.0450216065899783</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.793980071064981</v>
+        <v>0.0133259764279548</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0691380257342125</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.288235171049908</v>
+        <v>1.76555319960699</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4566,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4595,7 +4615,1162 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1.82177988301585e-24</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.297376093294461</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.102040816326531</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0003252931571916</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0002654465395163</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0003809679926199</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.64704510273755</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.999999999999752</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.707165109034268</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.258566978193146</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>30</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.243122904548317</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.12962962962963</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.438271604938272</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.0001434521367908</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0005983109137919</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.777730158525077</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0058309037900874</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.58600583090379</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0002626186367558</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0007262391627736</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0002850484295973</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.187584740539874</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0367904345701481</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.679190751445087</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0187090693653065</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0008118944463122001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0373362689620811</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.749862499611484</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.028559284775534</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.227458210591853</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0278149063866214</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-7.84595735591595</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>107</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.127240750742642</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-9.185079586212449</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4.89140309130776</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.118916589479105</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.167949141824516</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-1.39806316181092</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0937055764511984</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-3.43454277759746</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.024548990804633</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.022999765037594</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.0385351779000422</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.012104229777703</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-4.97830412069134</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>106</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-1.37001792920593</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.788957663158164</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.975</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.137166240660637</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.247529330477176</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.0364749986305724</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-2.75711036503793</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.036582000541484</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>108</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.791674876847291</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.66394141986564</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.07614223046943359</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.7330322933771209</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Whanganui at Cherry Grove</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.07144099545777111</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>109</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.314176336444399</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.793980071064981</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.288235171049908</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1795602</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5692831</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Cherry Grove</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Whai_2a</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
+++ b/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
@@ -569,17 +569,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.609052959158165</v>
+        <v>0.257487326760296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0545454545454545</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.472727272727273</v>
+        <v>0.5625</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -588,16 +588,16 @@
         <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.0340857116958458</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0920214837034891</v>
+        <v>-0.217200564219668</v>
       </c>
       <c r="M2" t="n">
-        <v>0.120739158867118</v>
+        <v>0.0660515089120251</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-2.84047597465382</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.469957046613374</v>
+        <v>0.157937239915245</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.947368421052632</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.77</v>
+        <v>10.79</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0116120671781047</v>
+        <v>-0.0850938494071717</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.11333007323205</v>
+        <v>-0.140252148436135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0961780573317248</v>
+        <v>0.0240399249792633</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.107818636751204</v>
+        <v>-0.788636231762481</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.304851087916313</v>
+        <v>0.326795995740295</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.403508771929825</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002923192203879</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009341845818424</v>
+        <v>-0.0006147317069785</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0017159514531117</v>
+        <v>0.001264935064935</v>
       </c>
       <c r="N4" t="n">
-        <v>2.43599350323269</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.272674834005562</v>
+        <v>0.224845898984445</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.789473684210526</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K5" t="n">
-        <v>6.58307388515473</v>
+        <v>7.68994473748694</v>
       </c>
       <c r="L5" t="n">
-        <v>-7.67801860162317</v>
+        <v>-4.03651574743281</v>
       </c>
       <c r="M5" t="n">
-        <v>24.6514435212884</v>
+        <v>26.5574116277137</v>
       </c>
       <c r="N5" t="n">
-        <v>6.58307388515473</v>
+        <v>5.91534210575919</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -933,24 +933,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.486910541519046</v>
+      </c>
       <c r="G6" t="n">
-        <v>0.916666666666667</v>
+        <v>0.9019607843137259</v>
       </c>
       <c r="H6" t="n">
-        <v>0.145833333333333</v>
+        <v>0.137254901960784</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -958,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1016,16 +1028,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.442496374104522</v>
+        <v>0.994205266698404</v>
       </c>
       <c r="G7" t="n">
-        <v>0.403508771929825</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="H7" t="n">
-        <v>0.105263157894737</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0.002</v>
@@ -1034,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0004013736263736</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1103,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.86580918635362</v>
+        <v>0.0017727041910391</v>
       </c>
       <c r="G8" t="n">
         <v>0.192982456140351</v>
       </c>
       <c r="H8" t="n">
-        <v>0.771929824561403</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.138</v>
+        <v>0.148</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0025085851648351</v>
+        <v>0.0219731051717307</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0126118937876209</v>
+        <v>0.0037114552771594</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0312545210461208</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.81781533683708</v>
+        <v>14.8466926836018</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.386201307088132</v>
+        <v>0.040725403639544</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.771929824561403</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0073277288149913</v>
+        <v>-0.0389775159075488</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0444649295216166</v>
+        <v>-0.06776437847866459</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0330050417369393</v>
+        <v>-0.0016455696619053</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0939452412178383</v>
+        <v>-0.501641131371284</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.886761966978257</v>
+        <v>0.006432790647278</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.807017543859649</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.155</v>
+        <v>0.162</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0047663118131868</v>
+        <v>0.0227741124007571</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0139273478503841</v>
+        <v>0.0030491773820004</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0009062932062789</v>
+        <v>0.0385488446076716</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.07503987947536</v>
+        <v>14.0580940745414</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,46 +1373,46 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.527600907128366</v>
+        <v>0.0161284117812108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0350877192982456</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.403508771929825</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.29</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0351201923076923</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.780536239432704</v>
+        <v>0.0037551410946744</v>
       </c>
       <c r="M11" t="n">
-        <v>0.569570476958866</v>
+        <v>0.0586493201209614</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>12.1104111405836</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.703241013280014</v>
+        <v>0.0449212557039076</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.684210526315789</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.25</v>
+        <v>0.022</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0041570839874411</v>
+        <v>0.0016773845302119</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0200143247974763</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009318646463475201</v>
+        <v>0.0038801967047196</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.66283359497645</v>
+        <v>7.62447513732709</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0154763533739123</v>
+        <v>0.560085419994085</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.526315789473684</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.022</v>
+        <v>2.44</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0022362244897959</v>
+        <v>-0.115865198711063</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006452302002831</v>
+        <v>-0.348035632302525</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0040137362637362</v>
+        <v>0.315587285828723</v>
       </c>
       <c r="N13" t="n">
-        <v>10.1646567717996</v>
+        <v>-4.74857371766653</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1649,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.560085419994085</v>
+        <v>0.0038667674322719</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982456140350877</v>
+        <v>0.431372549019608</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.71</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0953995840374366</v>
+        <v>-0.0955318221447254</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.393936907493803</v>
+        <v>-0.155113029876635</v>
       </c>
       <c r="M14" t="n">
-        <v>0.25312832932328</v>
+        <v>-0.0285343453571961</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.52027985377995</v>
+        <v>-7.34860170344041</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.035227378180343</v>
+        <v>0.241948496180052</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0560747663551402</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.383177570093458</v>
+        <v>0.884955752212389</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3</v>
+        <v>10.67</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0480170902716915</v>
+        <v>-0.0298638047575719</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.101740731616688</v>
+        <v>-0.0673532274059358</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.0199408553230207</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.69362232859165</v>
+        <v>-0.279885705319324</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.259773238677054</v>
+        <v>0.998996114345038</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8672566371681421</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.59</v>
+        <v>0.013</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0186768137877159</v>
+        <v>-0.0006138655462184001</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0652232142857147</v>
+        <v>-0.000966592111448</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0262424331167413</v>
+        <v>-0.0002931380417335</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.176362736427912</v>
+        <v>-4.72204266321913</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.973206928834689</v>
+        <v>0.006352136981842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17" t="n">
-        <v>0.273504273504274</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.013</v>
+        <v>105</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.000439928091604</v>
+        <v>6.29462126098525</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0008157843076798</v>
+        <v>2.15946544359197</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>10.1803072419144</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.38406224310808</v>
+        <v>5.99487739141452</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.06465339869556749</v>
+        <v>0.237911132011089</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.932692307692308</v>
       </c>
       <c r="H18" t="n">
-        <v>0.672413793103448</v>
+        <v>0.125</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>104.5</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>4.36445227292557</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.120654012496432</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7.60994179264669</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.17650935208189</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.340079120606649</v>
+        <v>0.999838279669685</v>
       </c>
       <c r="G19" t="n">
-        <v>0.930693069306931</v>
+        <v>0.367521367521368</v>
       </c>
       <c r="H19" t="n">
-        <v>0.128712871287129</v>
+        <v>0.11965811965812</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001122119815668</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002576372176813</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-5.61059907834101</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9847826726273879</v>
+        <v>0.0286927758703475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.299145299145299</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="H20" t="n">
-        <v>0.128205128205128</v>
+        <v>0.752136752136752</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.145</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0033856324972737</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001870724433901</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0076929945054945</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.33491896363705</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.306840087908524</v>
+        <v>0.86422901948827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.188034188034188</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.735042735042735</v>
+        <v>0.610619469026549</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.136</v>
+        <v>7.72</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0094039874262698</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0050905923344946</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0024998287320141</v>
+        <v>0.0229470772330569</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.121813308630439</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2360,7 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.98694630604815</v>
+        <v>0.0210078196047506</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6454545454545459</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.71</v>
+        <v>0.155</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0197521406038756</v>
+        <v>0.0033986042692939</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0056223595944342</v>
+        <v>0.0003125513018624</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0347857142857142</v>
+        <v>0.009383687674290099</v>
       </c>
       <c r="N22" t="n">
-        <v>0.25618859408399</v>
+        <v>2.1926479156735</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2447,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.234951025045563</v>
+        <v>0.202568032310993</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.726495726495726</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.148</v>
+        <v>0.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007147749510763</v>
+        <v>0.0025731898238747</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0009984709784431999</v>
+        <v>-0.0033219755056509</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0034245084290447</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="N23" t="n">
-        <v>0.482956048024541</v>
+        <v>0.857729941291585</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2540,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2551,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.854170776350648</v>
+        <v>0.0898417959531959</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.282051282051282</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>0.021</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.124850456560983</v>
+        <v>0.0004436687557175</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.401373626373626</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0010025662129504</v>
       </c>
       <c r="N24" t="n">
-        <v>-2.08084094268305</v>
+        <v>2.11270836055967</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2588,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2619,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.492482030362749</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.623931623931624</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3</v>
+        <v>2.62</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.0006182295192958</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0056873548178028</v>
+        <v>-0.0944629090021183</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0052081876071133</v>
+        <v>0.103487276183857</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.0235965465380103</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2710,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2737,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.216174625829734</v>
+        <v>0.004622166936587</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="H26" t="n">
-        <v>0.384615384615385</v>
+        <v>0.404109589041096</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>0.021</v>
+        <v>1.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002576860968267</v>
+        <v>-0.0453726708074534</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0002915003990422</v>
+        <v>-0.0775819463256187</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0008653098342025</v>
+        <v>-0.0137968551085699</v>
       </c>
       <c r="N26" t="n">
-        <v>1.22707665155614</v>
+        <v>-3.49020544672718</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2828,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.384383778702988</v>
+        <v>0.727175290616996</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.888888888888889</v>
+        <v>0.81437125748503</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>10.57</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0139942528735632</v>
+        <v>0.00748974709501</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0967731413267577</v>
+        <v>-0.0138577466609093</v>
       </c>
       <c r="M27" t="n">
-        <v>0.116241100744966</v>
+        <v>0.0300706919280185</v>
       </c>
       <c r="N27" t="n">
-        <v>0.514494590939825</v>
+        <v>0.0708585344844853</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2919,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.029632639192415</v>
+        <v>1.72194692394565e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0394736842105263</v>
+        <v>0.125</v>
       </c>
       <c r="H28" t="n">
-        <v>0.407894736842105</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.385</v>
+        <v>0.01</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0309193281602121</v>
+        <v>0.0004411898032032</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0611467633928572</v>
+        <v>0.0002666707228036</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.0006266864679703</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.23244246644131</v>
+        <v>4.41189803203201</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3010,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.184563127455429</v>
+        <v>0.032558299789566</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>0.821428571428571</v>
+        <v>0.668571428571429</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.575</v>
+        <v>109</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0116321656050956</v>
+        <v>2.69757344283018</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.039258160244404</v>
+        <v>0.378760265878812</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0088908753846349</v>
+        <v>5.79846175793108</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.109996837873244</v>
+        <v>2.47483802094512</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3097,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.55142635563812e-08</v>
+        <v>0.633772290886451</v>
       </c>
       <c r="G30" t="n">
-        <v>0.142045454545455</v>
+        <v>0.916129032258065</v>
       </c>
       <c r="H30" t="n">
-        <v>0.181818181818182</v>
+        <v>0.129032258064516</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0006162823397075</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0004309892086598</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0008127358421099</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.16282339707536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0928017567664384</v>
+        <v>0.326084019928228</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0057142857142857</v>
+        <v>0.481927710843373</v>
       </c>
       <c r="H31" t="n">
-        <v>0.657142857142857</v>
+        <v>0.0903614457831325</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>0.002</v>
       </c>
       <c r="K31" t="n">
-        <v>2.15118753739735</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.443690615612251</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>5.01717032967033</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.15118753739735</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.479182474281164</v>
+        <v>0.0198775504116042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.92258064516129</v>
+        <v>0.156626506024096</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12258064516129</v>
+        <v>0.716867469879518</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.137</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0021031669865643</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0043942937621413</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.5351583843535</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0347711018972632</v>
+        <v>0.7080089422508909</v>
       </c>
       <c r="G33" t="n">
-        <v>0.454545454545455</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09740259740259739</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.00225</v>
+        <v>7.705</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0027952806122448</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0056064790348264</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0113584029588504</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.036278787959051</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3448,7 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3461,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.137348739212474</v>
+        <v>0.038266595584104</v>
       </c>
       <c r="G34" t="n">
-        <v>0.165605095541401</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H34" t="n">
-        <v>0.713375796178344</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.136</v>
+        <v>0.14815</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.0016140264703505</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>8.155772571175019e-05</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0029113418071086</v>
+        <v>0.0037334551650942</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.08945424930853</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3556,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.805752333809151</v>
+        <v>0.183559562795557</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H35" t="n">
-        <v>0.536585365853659</v>
+        <v>0.505681818181818</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>7.7</v>
+        <v>0.3</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0063098319254004</v>
+        <v>0.0016643924770412</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0049823786276029</v>
+        <v>-0.001209140311335</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0151198511305324</v>
+        <v>0.0049874461729614</v>
       </c>
       <c r="N35" t="n">
-        <v>0.08194586916104429</v>
+        <v>0.554797492347095</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3626,11 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.212567039481106</v>
+        <v>0.234697639066736</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0056818181818181</v>
+        <v>0.0170454545454545</v>
       </c>
       <c r="H36" t="n">
-        <v>0.727272727272727</v>
+        <v>0.323863636363636</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.142</v>
+        <v>0.021</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0005041525525445</v>
+        <v>0.0001317165695995</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0004805281602053</v>
+        <v>-0.0001719007686332</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0022051956560686</v>
+        <v>0.0004577906605409</v>
       </c>
       <c r="N36" t="n">
-        <v>0.355037008834185</v>
+        <v>0.627221759998051</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3719,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.372511080519884</v>
+        <v>0.234988048758499</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0056818181818181</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5284090909090911</v>
+        <v>0.875</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.28</v>
+        <v>2.575</v>
       </c>
       <c r="K37" t="n">
-        <v>9.99589490968802e-05</v>
+        <v>0.02340022611645</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0019991789819376</v>
+        <v>-0.023997224323952</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003257368433041</v>
+        <v>0.07396703760312549</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0356996246774572</v>
+        <v>0.908746645299028</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3810,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3825,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.296686559642775</v>
+        <v>0.007749473547624</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0170454545454545</v>
+        <v>0.0306122448979592</v>
       </c>
       <c r="H38" t="n">
-        <v>0.335227272727273</v>
+        <v>0.464285714285714</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>0.021</v>
+        <v>1.32</v>
       </c>
       <c r="K38" t="n">
-        <v>9.416192380512859e-05</v>
+        <v>-0.0333105335157319</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0002044560079993</v>
+        <v>-0.0500820105318288</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0004196667943316</v>
+        <v>-0.008339071613620999</v>
       </c>
       <c r="N38" t="n">
-        <v>0.448390113357755</v>
+        <v>-2.52352526634332</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3889,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3901,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0013457653523168</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.147826086956522</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.147826086956522</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.128106949753546</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.869318181818182</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.6</v>
+        <v>0.0105</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0386992941920814</v>
+        <v>0.0002238051470588</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0140084893402907</v>
+        <v>6.3853271237826e-05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07708117762456131</v>
+        <v>0.0003560194046078</v>
       </c>
       <c r="N39" t="n">
-        <v>1.48843439200313</v>
+        <v>2.13147759103641</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3980,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3992,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.0109221537177649</v>
+        <v>0.007185536934039</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0301507537688442</v>
+        <v>0.0258620689655172</v>
       </c>
       <c r="H40" t="n">
-        <v>0.467336683417085</v>
+        <v>0.594827586206897</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.4</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0333054711246201</v>
+        <v>2.24692412850308</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0499321520792169</v>
+        <v>0.8748539657711401</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0077700268920701</v>
+        <v>3.66578609138434</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.37896222318715</v>
+        <v>2.24692412850308</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4094,35 +4106,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9.770396285860069e-05</v>
+        <v>0.980785960067552</v>
       </c>
       <c r="G41" t="n">
-        <v>0.162280701754386</v>
+        <v>0.885167464114832</v>
       </c>
       <c r="H41" t="n">
-        <v>0.149122807017544</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0002851288056206</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0001408283895645</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0004238310886827</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.85128805620608</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4186,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4185,35 +4197,35 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.0178485721450498</v>
+        <v>0.0425349545563325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0304347826086957</v>
+        <v>0.14218009478673</v>
       </c>
       <c r="H42" t="n">
-        <v>0.595652173913043</v>
+        <v>0.644549763033175</v>
       </c>
       <c r="I42" t="n">
         <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>99</v>
+        <v>0.14</v>
       </c>
       <c r="K42" t="n">
-        <v>2.00870760769936</v>
+        <v>0.0007078437660076</v>
       </c>
       <c r="L42" t="n">
-        <v>0.501650776461485</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>3.4815324507285</v>
+        <v>0.0026678659824589</v>
       </c>
       <c r="N42" t="n">
-        <v>2.02899758353471</v>
+        <v>0.505602690005433</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4253,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.996824967104345</v>
+        <v>0.105061015302036</v>
       </c>
       <c r="G43" t="n">
-        <v>0.869565217391304</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H43" t="n">
-        <v>0.173913043478261</v>
+        <v>0.739130434782609</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005</v>
+        <v>0.14815</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0008744211145996</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-0.0002185279695797</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.0022199885583651</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.590226874518856</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4344,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4367,35 +4379,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.225349000894177</v>
+        <v>0.06887154612864491</v>
       </c>
       <c r="G44" t="n">
-        <v>0.167464114832536</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.617224880382775</v>
+        <v>0.82051282051282</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.136</v>
+        <v>2.525</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.0339795751258418</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0003515069639004</v>
+        <v>-0.003649899572046</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0008748316165215</v>
+        <v>0.0622173296405147</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.34572574755809</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4404,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4435,7 +4447,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4447,46 +4459,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.435912010349762</v>
+        <v>1.89197892983453e-22</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0087719298245614</v>
+        <v>0.276967930029155</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6754385964912279</v>
+        <v>0.102040816326531</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1445</v>
+        <v>0.008</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.0003086371318203</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0006660209118071</v>
+        <v>0.0002527465202021</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0010003851411512</v>
+        <v>0.0003638893174446</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3.85796414775471</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4495,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4526,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4538,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.0116186646635903</v>
+        <v>0.99999999999995</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.722741433021807</v>
       </c>
       <c r="H46" t="n">
-        <v>0.801724137931034</v>
+        <v>0.252336448598131</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
-        <v>2.55</v>
+        <v>0.005</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0450216065899783</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0133259764279548</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0691380257342125</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.76555319960699</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4617,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>30</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4644,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.82177988301585e-24</v>
+        <v>0.0564337873822824</v>
       </c>
       <c r="G47" t="n">
-        <v>0.297376093294461</v>
+        <v>0.126543209876543</v>
       </c>
       <c r="H47" t="n">
-        <v>0.102040816326531</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>0.007</v>
+        <v>0.136</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0003252931571916</v>
+        <v>0.0003014705672454</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002654465395163</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0.0003809679926199</v>
+        <v>0.0012329412854354</v>
       </c>
       <c r="N47" t="n">
-        <v>4.64704510273755</v>
+        <v>0.221669534739316</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4677,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4720,14 +4732,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>30</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4735,28 +4747,28 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.999999999999752</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="n">
-        <v>0.707165109034268</v>
+        <v>0.0058309037900874</v>
       </c>
       <c r="H48" t="n">
-        <v>0.258566978193146</v>
+        <v>0.679300291545189</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>0.005</v>
+        <v>0.148</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>-0.000549645674004</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.0007128543538813999</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -4768,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4811,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4823,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4822,35 +4834,35 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.243122904548317</v>
+        <v>0.184779184523518</v>
       </c>
       <c r="G49" t="n">
-        <v>0.12962962962963</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.438271604938272</v>
+        <v>0.6907514450867051</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.13</v>
+        <v>2.525</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.0104042115484958</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0001434521367908</v>
+        <v>-0.0077007748924476</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0005983109137919</v>
+        <v>0.0299257656000943</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.412047982118645</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4890,7 +4902,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4902,46 +4914,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>0.777730158525077</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.0058309037900874</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.58600583090379</v>
-      </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.14</v>
+        <v>0.364</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0002626186367558</v>
+        <v>0.0397840222482436</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0007262391627736</v>
+        <v>-0.0209781198135055</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0002850484295973</v>
+        <v>0.0765466615155226</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.187584740539874</v>
+        <v>10.9296764418252</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4979,11 +4991,7 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4993,14 +5001,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -5008,31 +5016,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.0367904345701481</v>
+        <v>0.9352243235477961</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.679190751445087</v>
+        <v>0.8</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.495</v>
+        <v>107</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0187090693653065</v>
+        <v>2.44032338636501</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0008118944463122001</v>
+        <v>-0.982429445353754</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0373362689620811</v>
+        <v>4.85262739684452</v>
       </c>
       <c r="N51" t="n">
-        <v>0.749862499611484</v>
+        <v>2.28067606202338</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5041,7 +5049,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5070,11 +5078,7 @@
           <t>Whai_2a</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5084,7 +5088,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -5099,7 +5103,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5111,19 +5115,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.364</v>
+        <v>4.89</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.028559284775534</v>
+        <v>0.180841636497064</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.227458210591853</v>
+        <v>-0.132602634074408</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0278149063866214</v>
+        <v>0.758496534894703</v>
       </c>
       <c r="N52" t="n">
-        <v>-7.84595735591595</v>
+        <v>3.69819297540009</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5132,7 +5136,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q52" t="n">
@@ -5171,11 +5175,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -5186,7 +5190,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5198,19 +5202,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>107</v>
+        <v>0.462</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.127240750742642</v>
+        <v>-0.015584</v>
       </c>
       <c r="L53" t="n">
-        <v>-9.185079586212449</v>
+        <v>-0.0340038274731723</v>
       </c>
       <c r="M53" t="n">
-        <v>4.89140309130776</v>
+        <v>0.0111517599974298</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.118916589479105</v>
+        <v>-3.37316017316018</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5219,7 +5223,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5258,11 +5262,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -5273,31 +5277,31 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.231216363225238</v>
+        <v>0.6408261208260559</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>4.89</v>
+        <v>106.5</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.167949141824516</v>
+        <v>0.0761236728273694</v>
       </c>
       <c r="L54" t="n">
-        <v>-1.39806316181092</v>
+        <v>-1.37799855966184</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0937055764511984</v>
+        <v>0.997818171960875</v>
       </c>
       <c r="N54" t="n">
-        <v>-3.43454277759746</v>
+        <v>0.07147762706795251</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5306,7 +5310,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5345,7 +5349,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5360,7 +5364,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.024548990804633</v>
+        <v>0.5</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5372,19 +5376,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.462</v>
+        <v>4.975</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.022999765037594</v>
+        <v>-0.0101083948339484</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0385351779000422</v>
+        <v>-0.156315501531633</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.012104229777703</v>
+        <v>0.156031795428883</v>
       </c>
       <c r="N55" t="n">
-        <v>-4.97830412069134</v>
+        <v>-0.203183815757757</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5393,7 +5397,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5432,46 +5436,46 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>0.094443738769769</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>106</v>
+        <v>0.491</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-0.0117757087270706</v>
       </c>
       <c r="L56" t="n">
-        <v>-1.37001792920593</v>
+        <v>-0.0245059942110331</v>
       </c>
       <c r="M56" t="n">
-        <v>0.788957663158164</v>
+        <v>0.0027472033377575</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>-2.39831134970888</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5480,7 +5484,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -5519,11 +5523,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5534,31 +5538,31 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.07620314197837499</v>
+        <v>0.125859156058153</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0.7333333333333329</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4.975</v>
+        <v>108</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.137166240660637</v>
+        <v>-0.582569420927869</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.247529330477176</v>
+        <v>-1.49808776795879</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0364749986305724</v>
+        <v>0.0762419260762519</v>
       </c>
       <c r="N57" t="n">
-        <v>-2.75711036503793</v>
+        <v>-0.539416130488768</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5567,7 +5571,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -5606,7 +5610,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -5621,31 +5625,31 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.036582000541484</v>
+        <v>0.292035183472753</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>108</v>
+        <v>5.2</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.791674876847291</v>
+        <v>-0.0287436762225971</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.66394141986564</v>
+        <v>-0.162331504780276</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.07614223046943359</v>
+        <v>0.07470267463686781</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.7330322933771209</v>
+        <v>-0.552763004280713</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5654,7 +5658,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -5708,7 +5712,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.07144099545777111</v>
+        <v>0.062976174531352</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5720,10 +5724,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>109</v>
+        <v>110.265</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.314176336444399</v>
+        <v>-0.404498100370592</v>
       </c>
       <c r="L59" t="n">
         <v>-0.793980071064981</v>
@@ -5732,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.288235171049908</v>
+        <v>-0.366841790568714</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>

--- a/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
+++ b/trend_results/Rivers/WhanganuiatCherryGrove_060a17dc6f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -136,49 +136,52 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,31 +663,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.257487326760296</v>
+        <v>0.031687479536977</v>
       </c>
       <c r="G2">
-        <v>0.0416666666666667</v>
+        <v>0.0487804878048781</v>
       </c>
       <c r="H2">
-        <v>0.5625</v>
+        <v>0.707317073170732</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K2">
-        <v>-0.0340857116958458</v>
+        <v>-0.189018421795596</v>
       </c>
       <c r="L2">
-        <v>-0.217200564219668</v>
+        <v>-0.329548872180451</v>
       </c>
       <c r="M2">
-        <v>0.0660515089120251</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-2.84047597465382</v>
+        <v>-17.1834928905087</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -699,19 +702,19 @@
         <v>5692831</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,13 +734,13 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.157937239915245</v>
+        <v>0.532323046022024</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.946428571428571</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -746,16 +749,16 @@
         <v>10.79</v>
       </c>
       <c r="K3">
-        <v>-0.0850938494071717</v>
+        <v>0.0167101365712478</v>
       </c>
       <c r="L3">
-        <v>-0.140252148436135</v>
+        <v>-0.112107628240184</v>
       </c>
       <c r="M3">
-        <v>0.0240399249792633</v>
+        <v>0.11722201267044</v>
       </c>
       <c r="N3">
-        <v>-0.788636231762481</v>
+        <v>0.154866882031953</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -770,19 +773,19 @@
         <v>5692831</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,34 +802,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.326795995740295</v>
+        <v>0.0278486910515785</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.385964912280702</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0007327047283702</v>
       </c>
       <c r="L4">
-        <v>-0.0006147317069785</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001264935064935</v>
+        <v>0.0013731203007518</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.14116364855801</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -841,19 +844,19 @@
         <v>5692831</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,43 +870,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.224845898984445</v>
+        <v>0.597494705916904</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0181818181818182</v>
       </c>
       <c r="H5">
-        <v>0.842105263157895</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>130</v>
+        <v>134.4</v>
       </c>
       <c r="K5">
-        <v>7.68994473748694</v>
+        <v>-2.08714285714286</v>
       </c>
       <c r="L5">
-        <v>-4.03651574743281</v>
+        <v>-21.4065934065934</v>
       </c>
       <c r="M5">
-        <v>26.5574116277137</v>
+        <v>15.48404864749</v>
       </c>
       <c r="N5">
-        <v>5.91534210575919</v>
+        <v>-1.55293367346939</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1795602</v>
@@ -912,19 +915,19 @@
         <v>5692831</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -941,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.486910541519046</v>
+        <v>0.0675831362079939</v>
       </c>
       <c r="G6">
-        <v>0.9019607843137259</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="H6">
-        <v>0.137254901960784</v>
+        <v>0.156862745098039</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -974,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1795602</v>
@@ -983,19 +986,19 @@
         <v>5692831</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.994205266698404</v>
+        <v>0.999976304843556</v>
       </c>
       <c r="G7">
-        <v>0.491228070175439</v>
+        <v>0.56140350877193</v>
       </c>
       <c r="H7">
         <v>0.087719298245614</v>
@@ -1027,13 +1030,13 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0004013736263736</v>
+        <v>-0.0004276932084309</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1045,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1795602</v>
@@ -1054,19 +1057,19 @@
         <v>5692831</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,16 +1086,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>0.0017727041910391</v>
+        <v>0.126365889566649</v>
       </c>
       <c r="G8">
-        <v>0.192982456140351</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H8">
-        <v>0.789473684210526</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1101,22 +1104,22 @@
         <v>0.148</v>
       </c>
       <c r="K8">
-        <v>0.0219731051717307</v>
+        <v>0.008989096840659299</v>
       </c>
       <c r="L8">
-        <v>0.0037114552771594</v>
+        <v>-0.0032440850842986</v>
       </c>
       <c r="M8">
-        <v>0.0312545210461208</v>
+        <v>0.0228922805548946</v>
       </c>
       <c r="N8">
-        <v>14.8466926836018</v>
+        <v>6.07371408152658</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1795602</v>
@@ -1125,19 +1128,19 @@
         <v>5692831</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,40 +1157,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0.040725403639544</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.754385964912281</v>
+        <v>0.7037037037037041</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.77</v>
+        <v>7.785</v>
       </c>
       <c r="K9">
-        <v>-0.0389775159075488</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.06776437847866459</v>
+        <v>-0.0414702901387216</v>
       </c>
       <c r="M9">
-        <v>-0.0016455696619053</v>
+        <v>0.0374240935008878</v>
       </c>
       <c r="N9">
-        <v>-0.501641131371284</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1795602</v>
@@ -1196,16 +1199,16 @@
         <v>5692831</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,13 +1228,13 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.006432790647278</v>
+        <v>0.129097523791973</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.912280701754386</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1240,22 +1243,22 @@
         <v>0.162</v>
       </c>
       <c r="K10">
-        <v>0.0227741124007571</v>
+        <v>0.0092190504807692</v>
       </c>
       <c r="L10">
-        <v>0.0030491773820004</v>
+        <v>-0.0047260290045336</v>
       </c>
       <c r="M10">
-        <v>0.0385488446076716</v>
+        <v>0.0266129195046613</v>
       </c>
       <c r="N10">
-        <v>14.0580940745414</v>
+        <v>5.6907719017094</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1795602</v>
@@ -1264,19 +1267,19 @@
         <v>5692831</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1299,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0161284117812108</v>
+        <v>0.126365889566649</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.614035087719298</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="K11">
-        <v>0.0351201923076923</v>
+        <v>0.0170999888269625</v>
       </c>
       <c r="L11">
-        <v>0.0037551410946744</v>
+        <v>-0.008832897883298101</v>
       </c>
       <c r="M11">
-        <v>0.0586493201209614</v>
+        <v>0.0350842363791919</v>
       </c>
       <c r="N11">
-        <v>12.1104111405836</v>
+        <v>5.69999627565417</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1795602</v>
@@ -1335,19 +1338,19 @@
         <v>5692831</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,31 +1370,31 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.0449212557039076</v>
+        <v>0.732546291383016</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.508771929824561</v>
+        <v>0.491228070175439</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="K12">
-        <v>0.0016773845302119</v>
+        <v>-0.0004319654585972</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.0020905270789172</v>
       </c>
       <c r="M12">
-        <v>0.0038801967047196</v>
+        <v>0.0007129322682355</v>
       </c>
       <c r="N12">
-        <v>7.62447513732709</v>
+        <v>-2.27350241366964</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
@@ -1406,19 +1409,19 @@
         <v>5692831</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,13 +1435,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.560085419994085</v>
+        <v>0.9910601521142161</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1450,25 +1453,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="K13">
-        <v>-0.115865198711063</v>
+        <v>-0.314785585286746</v>
       </c>
       <c r="L13">
-        <v>-0.348035632302525</v>
+        <v>-0.564732287189139</v>
       </c>
       <c r="M13">
-        <v>0.315587285828723</v>
+        <v>-0.120792594919725</v>
       </c>
       <c r="N13">
-        <v>-4.74857371766653</v>
+        <v>-14.3737710176596</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1795602</v>
@@ -1477,19 +1480,19 @@
         <v>5692831</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,40 +1509,40 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>0.0038667674322719</v>
+        <v>0.0031822450214179</v>
       </c>
       <c r="G14">
-        <v>0.0588235294117647</v>
+        <v>0.04</v>
       </c>
       <c r="H14">
-        <v>0.431372549019608</v>
+        <v>0.45</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K14">
-        <v>-0.0955318221447254</v>
+        <v>-0.100343406593407</v>
       </c>
       <c r="L14">
-        <v>-0.155113029876635</v>
+        <v>-0.158059141780081</v>
       </c>
       <c r="M14">
-        <v>-0.0285343453571961</v>
+        <v>-0.0329772041523729</v>
       </c>
       <c r="N14">
-        <v>-7.34860170344041</v>
+        <v>-8.361950549450549</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q14">
         <v>1795602</v>
@@ -1548,19 +1551,19 @@
         <v>5692831</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1583,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.241948496180052</v>
+        <v>0.767263645433173</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.884955752212389</v>
+        <v>0.893805309734513</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67</v>
+        <v>10.74</v>
       </c>
       <c r="K15">
-        <v>-0.0298638047575719</v>
+        <v>0.0144631434663417</v>
       </c>
       <c r="L15">
-        <v>-0.0673532274059358</v>
+        <v>-0.0298920383474872</v>
       </c>
       <c r="M15">
-        <v>0.0199408553230207</v>
+        <v>0.047435064935065</v>
       </c>
       <c r="N15">
-        <v>-0.279885705319324</v>
+        <v>0.134666140282511</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1795602</v>
@@ -1619,19 +1622,19 @@
         <v>5692831</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1654,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.998996114345038</v>
+        <v>0.997363965239619</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.282051282051282</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K16">
-        <v>-0.0006138655462184001</v>
+        <v>-0.0005141838853784</v>
       </c>
       <c r="L16">
-        <v>-0.000966592111448</v>
+        <v>-0.000828231292517</v>
       </c>
       <c r="M16">
-        <v>-0.0002931380417335</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="N16">
-        <v>-4.72204266321913</v>
+        <v>-4.28486571148744</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1795602</v>
@@ -1690,19 +1693,19 @@
         <v>5692831</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1725,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.006352136981842</v>
+        <v>0.11137528090598</v>
       </c>
       <c r="G17">
-        <v>0.0086206896551724</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H17">
-        <v>0.655172413793103</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K17">
-        <v>6.29462126098525</v>
+        <v>3.74487354750513</v>
       </c>
       <c r="L17">
-        <v>2.15946544359197</v>
+        <v>-1.44216003454567</v>
       </c>
       <c r="M17">
-        <v>10.1803072419144</v>
+        <v>9.275418544015301</v>
       </c>
       <c r="N17">
-        <v>5.99487739141452</v>
+        <v>3.40443049773193</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q17">
         <v>1795602</v>
@@ -1761,19 +1764,19 @@
         <v>5692831</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.237911132011089</v>
+        <v>0.0834356788955021</v>
       </c>
       <c r="G18">
-        <v>0.932692307692308</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="H18">
-        <v>0.125</v>
+        <v>0.152380952380952</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1823,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1795602</v>
@@ -1832,19 +1835,19 @@
         <v>5692831</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999838279669685</v>
+        <v>0.9999997768957281</v>
       </c>
       <c r="G19">
-        <v>0.367521367521368</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="H19">
-        <v>0.11965811965812</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1879,22 +1882,22 @@
         <v>0.002</v>
       </c>
       <c r="K19">
-        <v>-0.0001122119815668</v>
+        <v>-0.0002018017399267</v>
       </c>
       <c r="L19">
-        <v>-0.0002576372176813</v>
+        <v>-0.0003164121223287</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-5.61059907834101</v>
+        <v>-10.090086996337</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1795602</v>
@@ -1903,19 +1906,19 @@
         <v>5692831</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,40 +1935,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0286927758703475</v>
+        <v>0.362194758985458</v>
       </c>
       <c r="G20">
-        <v>0.162393162393162</v>
+        <v>0.136752136752137</v>
       </c>
       <c r="H20">
-        <v>0.752136752136752</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="K20">
-        <v>0.0033856324972737</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0030103021978022</v>
       </c>
       <c r="M20">
-        <v>0.0076929945054945</v>
+        <v>0.0041973801698974</v>
       </c>
       <c r="N20">
-        <v>2.33491896363705</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1795602</v>
@@ -1974,19 +1977,19 @@
         <v>5692831</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,37 +2009,37 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.86422901948827</v>
+        <v>0.967596689385664</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.610619469026549</v>
+        <v>0.592920353982301</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.72</v>
+        <v>7.74</v>
       </c>
       <c r="K21">
-        <v>0.0094039874262698</v>
+        <v>0.0159893644136007</v>
       </c>
       <c r="L21">
-        <v>-0.0050905923344946</v>
+        <v>0.0016789531342608</v>
       </c>
       <c r="M21">
-        <v>0.0229470772330569</v>
+        <v>0.0295771965207766</v>
       </c>
       <c r="N21">
-        <v>0.121813308630439</v>
+        <v>0.206580935576236</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q21">
         <v>1795602</v>
@@ -2045,16 +2048,16 @@
         <v>5692831</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,13 +2077,13 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.0210078196047506</v>
+        <v>0.374083345814276</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.7692307692307691</v>
+        <v>0.760683760683761</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2089,22 +2092,22 @@
         <v>0.155</v>
       </c>
       <c r="K22">
-        <v>0.0033986042692939</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L22">
-        <v>0.0003125513018624</v>
+        <v>-0.0029100982551882</v>
       </c>
       <c r="M22">
-        <v>0.009383687674290099</v>
+        <v>0.004980827166918</v>
       </c>
       <c r="N22">
-        <v>2.1926479156735</v>
+        <v>0.214417799172268</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1795602</v>
@@ -2113,19 +2116,19 @@
         <v>5692831</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,13 +2148,13 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.202568032310993</v>
+        <v>0.846274774992284</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.538461538461538</v>
+        <v>0.478632478632479</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2160,22 +2163,22 @@
         <v>0.3</v>
       </c>
       <c r="K23">
-        <v>0.0025731898238747</v>
+        <v>-0.0039983579638752</v>
       </c>
       <c r="L23">
-        <v>-0.0033219755056509</v>
+        <v>-0.009944568849703</v>
       </c>
       <c r="M23">
-        <v>0.0100343406593406</v>
+        <v>0.0020261253071837</v>
       </c>
       <c r="N23">
-        <v>0.857729941291585</v>
+        <v>-1.3327859879584</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1795602</v>
@@ -2184,19 +2187,19 @@
         <v>5692831</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,40 +2216,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>0.0898417959531959</v>
+        <v>0.656616850289045</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.358974358974359</v>
+        <v>0.35042735042735</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="K24">
-        <v>0.0004436687557175</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0005971870670583</v>
       </c>
       <c r="M24">
-        <v>0.0010025662129504</v>
+        <v>0.000378073787553</v>
       </c>
       <c r="N24">
-        <v>2.11270836055967</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1795602</v>
@@ -2255,19 +2258,19 @@
         <v>5692831</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2290,37 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.492482030362749</v>
+        <v>0.9787336483460271</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.923076923076923</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K25">
-        <v>0.0006182295192958</v>
+        <v>-0.112359730088805</v>
       </c>
       <c r="L25">
-        <v>-0.0944629090021183</v>
+        <v>-0.223647352701972</v>
       </c>
       <c r="M25">
-        <v>0.103487276183857</v>
+        <v>-0.023629810925603</v>
       </c>
       <c r="N25">
-        <v>0.0235965465380103</v>
+        <v>-4.37197393341654</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1795602</v>
@@ -2326,19 +2329,19 @@
         <v>5692831</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,13 +2361,13 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.004622166936587</v>
+        <v>0.0025520461534309</v>
       </c>
       <c r="G26">
-        <v>0.0410958904109589</v>
+        <v>0.041958041958042</v>
       </c>
       <c r="H26">
-        <v>0.404109589041096</v>
+        <v>0.391608391608392</v>
       </c>
       <c r="I26">
         <v>4</v>
@@ -2373,22 +2376,22 @@
         <v>1.3</v>
       </c>
       <c r="K26">
-        <v>-0.0453726708074534</v>
+        <v>-0.0483903020667727</v>
       </c>
       <c r="L26">
-        <v>-0.0775819463256187</v>
+        <v>-0.07989379631021359</v>
       </c>
       <c r="M26">
-        <v>-0.0137968551085699</v>
+        <v>-0.0183366657697337</v>
       </c>
       <c r="N26">
-        <v>-3.49020544672718</v>
+        <v>-3.72233092821328</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1795602</v>
@@ -2397,19 +2400,19 @@
         <v>5692831</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2432,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.727175290616996</v>
+        <v>0.865395128504027</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.81437125748503</v>
+        <v>0.813253012048193</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.57</v>
+        <v>10.595</v>
       </c>
       <c r="K27">
-        <v>0.00748974709501</v>
+        <v>0.0144631434663417</v>
       </c>
       <c r="L27">
-        <v>-0.0138577466609093</v>
+        <v>-0.0079954964223616</v>
       </c>
       <c r="M27">
-        <v>0.0300706919280185</v>
+        <v>0.0332001296762853</v>
       </c>
       <c r="N27">
-        <v>0.0708585344844853</v>
+        <v>0.136509140786613</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1795602</v>
@@ -2468,19 +2471,19 @@
         <v>5692831</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>1.72194692394565E-05</v>
+        <v>0.008133860678132</v>
       </c>
       <c r="G28">
-        <v>0.125</v>
+        <v>0.102272727272727</v>
       </c>
       <c r="H28">
         <v>0.181818181818182</v>
@@ -2512,25 +2515,25 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="K28">
-        <v>0.0004411898032032</v>
+        <v>0.0002589507266926</v>
       </c>
       <c r="L28">
-        <v>0.0002666707228036</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0006266864679703</v>
+        <v>0.00042844848617</v>
       </c>
       <c r="N28">
-        <v>4.41189803203201</v>
+        <v>2.35409751538784</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q28">
         <v>1795602</v>
@@ -2539,19 +2542,19 @@
         <v>5692831</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,37 +2574,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>0.032558299789566</v>
+        <v>0.198705629528899</v>
       </c>
       <c r="G29">
-        <v>0.0057142857142857</v>
+        <v>0.0115606936416185</v>
       </c>
       <c r="H29">
-        <v>0.668571428571429</v>
+        <v>0.682080924855491</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K29">
-        <v>2.69757344283018</v>
+        <v>1.3322188449848</v>
       </c>
       <c r="L29">
-        <v>0.378760265878812</v>
+        <v>-1.41861510317887</v>
       </c>
       <c r="M29">
-        <v>5.79846175793108</v>
+        <v>4.14355774269347</v>
       </c>
       <c r="N29">
-        <v>2.47483802094512</v>
+        <v>1.21110804089528</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1795602</v>
@@ -2610,19 +2613,19 @@
         <v>5692831</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.633772290886451</v>
+        <v>0.441322029352295</v>
       </c>
       <c r="G30">
-        <v>0.916129032258065</v>
+        <v>0.8967741935483871</v>
       </c>
       <c r="H30">
-        <v>0.129032258064516</v>
+        <v>0.148387096774194</v>
       </c>
       <c r="I30">
         <v>7</v>
@@ -2681,19 +2684,19 @@
         <v>5692831</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2710,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.326084019928228</v>
+        <v>0.77505615964775</v>
       </c>
       <c r="G31">
-        <v>0.481927710843373</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>0.0903614457831325</v>
+        <v>0.08522727272727269</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2743,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1795602</v>
@@ -2752,19 +2755,19 @@
         <v>5692831</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,13 +2787,13 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.0198775504116042</v>
+        <v>0.111334980205261</v>
       </c>
       <c r="G32">
-        <v>0.156626506024096</v>
+        <v>0.153409090909091</v>
       </c>
       <c r="H32">
-        <v>0.716867469879518</v>
+        <v>0.7159090909090911</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2799,22 +2802,22 @@
         <v>0.137</v>
       </c>
       <c r="K32">
-        <v>0.0021031669865643</v>
+        <v>0.0004183688551315</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0043942937621413</v>
+        <v>0.0030980225167965</v>
       </c>
       <c r="N32">
-        <v>1.5351583843535</v>
+        <v>0.305378726373401</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q32">
         <v>1795602</v>
@@ -2823,19 +2826,19 @@
         <v>5692831</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,37 +2858,37 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.7080089422508909</v>
+        <v>0.9231749108287161</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.524390243902439</v>
+        <v>0.50920245398773</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.705</v>
+        <v>7.72</v>
       </c>
       <c r="K33">
-        <v>0.0027952806122448</v>
+        <v>0.0070708754570876</v>
       </c>
       <c r="L33">
-        <v>-0.0056064790348264</v>
+        <v>-0.0009494297114151</v>
       </c>
       <c r="M33">
-        <v>0.0113584029588504</v>
+        <v>0.0151897098435861</v>
       </c>
       <c r="N33">
-        <v>0.036278787959051</v>
+        <v>0.09159165099854411</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q33">
         <v>1795602</v>
@@ -2894,16 +2897,16 @@
         <v>5692831</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,37 +2926,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.038266595584104</v>
+        <v>0.147464643134816</v>
       </c>
       <c r="G34">
-        <v>0.0056818181818181</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.795454545454545</v>
+        <v>0.789772727272727</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.14815</v>
+        <v>0.14915</v>
       </c>
       <c r="K34">
-        <v>0.0016140264703505</v>
+        <v>0.0010414408493903</v>
       </c>
       <c r="L34">
-        <v>8.155772571175019E-05</v>
+        <v>-0.0005582425908206</v>
       </c>
       <c r="M34">
-        <v>0.0037334551650942</v>
+        <v>0.0032464360157966</v>
       </c>
       <c r="N34">
-        <v>1.08945424930853</v>
+        <v>0.698250653295566</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q34">
         <v>1795602</v>
@@ -2962,19 +2965,19 @@
         <v>5692831</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,37 +2997,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.183559562795557</v>
+        <v>0.681954253256372</v>
       </c>
       <c r="G35">
-        <v>0.0056818181818181</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.505681818181818</v>
+        <v>0.5</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0.3</v>
       </c>
       <c r="K35">
-        <v>0.0016643924770412</v>
+        <v>-0.0004148551284801</v>
       </c>
       <c r="L35">
-        <v>-0.001209140311335</v>
+        <v>-0.0040031146431819</v>
       </c>
       <c r="M35">
-        <v>0.0049874461729614</v>
+        <v>0.0022203647416413</v>
       </c>
       <c r="N35">
-        <v>0.554797492347095</v>
+        <v>-0.138285042826716</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1795602</v>
@@ -3033,19 +3036,19 @@
         <v>5692831</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,40 +3065,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>0.234697639066736</v>
+        <v>0.601560649278755</v>
       </c>
       <c r="G36">
         <v>0.0170454545454545</v>
       </c>
       <c r="H36">
-        <v>0.323863636363636</v>
+        <v>0.306818181818182</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="K36">
-        <v>0.0001317165695995</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0001719007686332</v>
+        <v>-0.0003418773871437</v>
       </c>
       <c r="M36">
-        <v>0.0004577906605409</v>
+        <v>0.0002518082126709</v>
       </c>
       <c r="N36">
-        <v>0.627221759998051</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1795602</v>
@@ -3104,19 +3107,19 @@
         <v>5692831</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3136,37 +3139,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.234988048758499</v>
+        <v>0.8347436395230891</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.875</v>
+        <v>0.892045454545455</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.575</v>
+        <v>2.57</v>
       </c>
       <c r="K37">
-        <v>0.02340022611645</v>
+        <v>-0.0284263398702591</v>
       </c>
       <c r="L37">
-        <v>-0.023997224323952</v>
+        <v>-0.096183233025451</v>
       </c>
       <c r="M37">
-        <v>0.07396703760312549</v>
+        <v>0.0168547174617659</v>
       </c>
       <c r="N37">
-        <v>0.908746645299028</v>
+        <v>-1.10608326343421</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q37">
         <v>1795602</v>
@@ -3175,19 +3178,19 @@
         <v>5692831</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,37 +3210,37 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.007749473547624</v>
+        <v>0.0024701268322879</v>
       </c>
       <c r="G38">
-        <v>0.0306122448979592</v>
+        <v>0.03125</v>
       </c>
       <c r="H38">
-        <v>0.464285714285714</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I38">
         <v>4</v>
       </c>
       <c r="J38">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="K38">
-        <v>-0.0333105335157319</v>
+        <v>-0.0364066782955395</v>
       </c>
       <c r="L38">
-        <v>-0.0500820105318288</v>
+        <v>-0.0515773480279908</v>
       </c>
       <c r="M38">
-        <v>-0.008339071613620999</v>
+        <v>-0.0142841839516592</v>
       </c>
       <c r="N38">
-        <v>-2.52352526634332</v>
+        <v>-2.8005137150415</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q38">
         <v>1795602</v>
@@ -3246,19 +3249,19 @@
         <v>5692831</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3266,49 +3269,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.0013457653523168</v>
+        <v>0.577727250131012</v>
       </c>
       <c r="G39">
-        <v>0.147826086956522</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.147826086956522</v>
+        <v>0.7958115183246069</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.0105</v>
+        <v>10.6</v>
       </c>
       <c r="K39">
-        <v>0.0002238051470588</v>
+        <v>0.0033379026730638</v>
       </c>
       <c r="L39">
-        <v>6.3853271237826E-05</v>
+        <v>-0.0184006402308279</v>
       </c>
       <c r="M39">
-        <v>0.0003560194046078</v>
+        <v>0.0199898528154019</v>
       </c>
       <c r="N39">
-        <v>2.13147759103641</v>
+        <v>0.0314896478590926</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1795602</v>
@@ -3317,16 +3320,16 @@
         <v>5692831</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W39" t="s">
         <v>62</v>
@@ -3337,49 +3340,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.007185536934039</v>
+        <v>0.0036504863916249</v>
       </c>
       <c r="G40">
-        <v>0.0258620689655172</v>
+        <v>0.138528138528139</v>
       </c>
       <c r="H40">
-        <v>0.594827586206897</v>
+        <v>0.147186147186147</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="K40">
-        <v>2.24692412850308</v>
+        <v>0.00019043274244</v>
       </c>
       <c r="L40">
-        <v>0.8748539657711401</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>3.66578609138434</v>
+        <v>0.0003173021600665</v>
       </c>
       <c r="N40">
-        <v>2.24692412850308</v>
+        <v>1.90432742440042</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q40">
         <v>1795602</v>
@@ -3388,16 +3391,16 @@
         <v>5692831</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W40" t="s">
         <v>63</v>
@@ -3408,49 +3411,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>0.980785960067552</v>
+        <v>0.0024021126296404</v>
       </c>
       <c r="G41">
-        <v>0.885167464114832</v>
+        <v>0.0301724137931034</v>
       </c>
       <c r="H41">
-        <v>0.157894736842105</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I41">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0.005</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>2.74249146757679</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1.09527326760994</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>4.40217891483256</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>2.74249146757679</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q41">
         <v>1795602</v>
@@ -3459,19 +3462,19 @@
         <v>5692831</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,43 +3482,43 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0425349545563325</v>
+        <v>0.82088632459366</v>
       </c>
       <c r="G42">
-        <v>0.14218009478673</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="H42">
-        <v>0.644549763033175</v>
+        <v>0.168269230769231</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J42">
-        <v>0.14</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>0.0007078437660076</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.0026678659824589</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>0.505602690005433</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
@@ -3530,19 +3533,19 @@
         <v>5692831</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,7 +3553,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3562,37 +3565,37 @@
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.105061015302036</v>
+        <v>0.0908303988362245</v>
       </c>
       <c r="G43">
-        <v>0.008695652173913</v>
+        <v>0.141509433962264</v>
       </c>
       <c r="H43">
-        <v>0.739130434782609</v>
+        <v>0.665094339622642</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43">
-        <v>0.14815</v>
+        <v>0.139</v>
       </c>
       <c r="K43">
-        <v>0.0008744211145996</v>
+        <v>0.0004008597036766</v>
       </c>
       <c r="L43">
-        <v>-0.0002185279695797</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.0022199885583651</v>
+        <v>0.0025166915283437</v>
       </c>
       <c r="N43">
-        <v>0.590226874518856</v>
+        <v>0.288388276026335</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>1795602</v>
@@ -3601,19 +3604,19 @@
         <v>5692831</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3621,7 +3624,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3633,37 +3636,37 @@
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.06887154612864491</v>
+        <v>0.978276808227165</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.82051282051282</v>
+        <v>0.487179487179487</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2.525</v>
+        <v>7.7</v>
       </c>
       <c r="K44">
-        <v>0.0339795751258418</v>
+        <v>0.009907323688969001</v>
       </c>
       <c r="L44">
-        <v>-0.003649899572046</v>
+        <v>0.001881331525026</v>
       </c>
       <c r="M44">
-        <v>0.0622173296405147</v>
+        <v>0.0157105396572881</v>
       </c>
       <c r="N44">
-        <v>1.34572574755809</v>
+        <v>0.128666541415182</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q44">
         <v>1795602</v>
@@ -3672,19 +3675,16 @@
         <v>5692831</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
-      </c>
-      <c r="W44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3692,49 +3692,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
       </c>
       <c r="F45">
-        <v>1.89197892983453E-22</v>
+        <v>0.136214319579583</v>
       </c>
       <c r="G45">
-        <v>0.276967930029155</v>
+        <v>0.008658008658008601</v>
       </c>
       <c r="H45">
-        <v>0.102040816326531</v>
+        <v>0.731601731601732</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45">
-        <v>0.008</v>
+        <v>0.147</v>
       </c>
       <c r="K45">
-        <v>0.0003086371318203</v>
+        <v>0.0007330322933771</v>
       </c>
       <c r="L45">
-        <v>0.0002527465202021</v>
+        <v>-0.0002856025626345</v>
       </c>
       <c r="M45">
-        <v>0.0003638893174446</v>
+        <v>0.002116359858672</v>
       </c>
       <c r="N45">
-        <v>3.85796414775471</v>
+        <v>0.498661424066069</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q45">
         <v>1795602</v>
@@ -3743,16 +3743,16 @@
         <v>5692831</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W45" t="s">
         <v>62</v>
@@ -3763,49 +3763,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46">
-        <v>0.99999999999995</v>
+        <v>0.212590464597135</v>
       </c>
       <c r="G46">
-        <v>0.722741433021807</v>
+        <v>0.0047619047619047</v>
       </c>
       <c r="H46">
-        <v>0.252336448598131</v>
+        <v>0.452380952380952</v>
       </c>
       <c r="I46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0.005</v>
+        <v>0.285</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>0.001059035246613</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-0.0010037377054693</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.0034092702627543</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.37159131460108</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>1795602</v>
@@ -3814,16 +3814,16 @@
         <v>5692831</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W46" t="s">
         <v>62</v>
@@ -3834,49 +3834,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>0.0564337873822824</v>
+        <v>0.665552736971983</v>
       </c>
       <c r="G47">
-        <v>0.126543209876543</v>
+        <v>0.0142857142857143</v>
       </c>
       <c r="H47">
-        <v>0.462962962962963</v>
+        <v>0.295238095238095</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0.136</v>
+        <v>0.02</v>
       </c>
       <c r="K47">
-        <v>0.0003014705672454</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>-0.0002805441438017</v>
       </c>
       <c r="M47">
-        <v>0.0012329412854354</v>
+        <v>0.0001623067681711</v>
       </c>
       <c r="N47">
-        <v>0.221669534739316</v>
+        <v>0</v>
       </c>
       <c r="O47" t="s">
         <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q47">
         <v>1795602</v>
@@ -3885,16 +3885,16 @@
         <v>5692831</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W47" t="s">
         <v>62</v>
@@ -3905,49 +3905,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.259034243270278</v>
       </c>
       <c r="G48">
-        <v>0.0058309037900874</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.679300291545189</v>
+        <v>0.834042553191489</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.148</v>
+        <v>2.4</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.012305040609008</v>
       </c>
       <c r="L48">
-        <v>-0.000549645674004</v>
+        <v>-0.01677103464102</v>
       </c>
       <c r="M48">
-        <v>0.0007128543538813999</v>
+        <v>0.0450098666853918</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>0.5127100253753341</v>
       </c>
       <c r="O48" t="s">
         <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q48">
         <v>1795602</v>
@@ -3956,19 +3956,19 @@
         <v>5692831</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3976,49 +3976,49 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>30</v>
       </c>
       <c r="D49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>39</v>
       </c>
       <c r="F49">
-        <v>0.184779184523518</v>
+        <v>7.54711046002665E-06</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>0.0235294117647059</v>
       </c>
       <c r="H49">
-        <v>0.6907514450867051</v>
+        <v>0.486274509803922</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>2.525</v>
+        <v>1.4</v>
       </c>
       <c r="K49">
-        <v>0.0104042115484958</v>
+        <v>-0.0368732473359507</v>
       </c>
       <c r="L49">
-        <v>-0.0077007748924476</v>
+        <v>-0.0522888480447397</v>
       </c>
       <c r="M49">
-        <v>0.0299257656000943</v>
+        <v>-0.0228614555800073</v>
       </c>
       <c r="N49">
-        <v>0.412047982118645</v>
+        <v>-2.63380338113933</v>
       </c>
       <c r="O49" t="s">
         <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q49">
         <v>1795602</v>
@@ -4027,19 +4027,19 @@
         <v>5692831</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4047,10 +4047,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4059,37 +4059,37 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <v>0.889664319040077</v>
+        <v>2.37191207399811E-19</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.253644314868805</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.102040816326531</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.364</v>
+        <v>0.008</v>
       </c>
       <c r="K50">
-        <v>0.0397840222482436</v>
+        <v>0.0002843518878941</v>
       </c>
       <c r="L50">
-        <v>-0.0209781198135055</v>
+        <v>0.0002308786346396</v>
       </c>
       <c r="M50">
-        <v>0.0765466615155226</v>
+        <v>0.0003424524511117</v>
       </c>
       <c r="N50">
-        <v>10.9296764418252</v>
+        <v>3.55439859867653</v>
       </c>
       <c r="O50" t="s">
         <v>43</v>
       </c>
       <c r="P50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q50">
         <v>1795602</v>
@@ -4098,16 +4098,19 @@
         <v>5692831</v>
       </c>
       <c r="S50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V50" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4115,49 +4118,49 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51">
-        <v>0.9352243235477961</v>
+        <v>0.999999999993707</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.736677115987461</v>
       </c>
       <c r="H51">
-        <v>0.8</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J51">
-        <v>107</v>
+        <v>0.005</v>
       </c>
       <c r="K51">
-        <v>2.44032338636501</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>-0.982429445353754</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>4.85262739684452</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>2.28067606202338</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
         <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q51">
         <v>1795602</v>
@@ -4166,16 +4169,19 @@
         <v>5692831</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4183,49 +4189,49 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52">
-        <v>0.768783636774762</v>
+        <v>0.358343271612875</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.123456790123457</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.487654320987654</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
-        <v>4.89</v>
+        <v>0.14</v>
       </c>
       <c r="K52">
-        <v>0.180841636497064</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>-0.132602634074408</v>
+        <v>-0.0003573631467007</v>
       </c>
       <c r="M52">
-        <v>0.758496534894703</v>
+        <v>0.0005393334504593</v>
       </c>
       <c r="N52">
-        <v>3.69819297540009</v>
+        <v>0</v>
       </c>
       <c r="O52" t="s">
         <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q52">
         <v>1795602</v>
@@ -4234,16 +4240,19 @@
         <v>5692831</v>
       </c>
       <c r="S52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V52" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4251,49 +4260,49 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>39</v>
       </c>
       <c r="F53">
-        <v>0.185546684761349</v>
+        <v>0.833796000677964</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.0058309037900874</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.676384839650146</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>0.462</v>
+        <v>0.15</v>
       </c>
       <c r="K53">
-        <v>-0.015584</v>
+        <v>-0.0003800728407908</v>
       </c>
       <c r="L53">
-        <v>-0.0340038274731723</v>
+        <v>-0.0008829429376085</v>
       </c>
       <c r="M53">
-        <v>0.0111517599974298</v>
+        <v>0.0002274857809423</v>
       </c>
       <c r="N53">
-        <v>-3.37316017316018</v>
+        <v>-0.253381893860562</v>
       </c>
       <c r="O53" t="s">
         <v>43</v>
       </c>
       <c r="P53" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q53">
         <v>1795602</v>
@@ -4302,16 +4311,19 @@
         <v>5692831</v>
       </c>
       <c r="S53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V53" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4319,49 +4331,49 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>39</v>
       </c>
       <c r="F54">
-        <v>0.6408261208260559</v>
+        <v>0.677095861912195</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>0.702312138728324</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>106.5</v>
+        <v>2.51</v>
       </c>
       <c r="K54">
-        <v>0.0761236728273694</v>
+        <v>-0.0049882185660571</v>
       </c>
       <c r="L54">
-        <v>-1.37799855966184</v>
+        <v>-0.0238210138472947</v>
       </c>
       <c r="M54">
-        <v>0.997818171960875</v>
+        <v>0.0125444629507388</v>
       </c>
       <c r="N54">
-        <v>0.07147762706795251</v>
+        <v>-0.198733807412636</v>
       </c>
       <c r="O54" t="s">
         <v>43</v>
       </c>
       <c r="P54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q54">
         <v>1795602</v>
@@ -4370,16 +4382,19 @@
         <v>5692831</v>
       </c>
       <c r="S54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V54" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4387,10 +4402,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4399,7 +4414,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>0.5</v>
+        <v>0.986256831944245</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4411,25 +4426,25 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>4.975</v>
+        <v>0.38</v>
       </c>
       <c r="K55">
-        <v>-0.0101083948339484</v>
+        <v>0.08415534983323231</v>
       </c>
       <c r="L55">
-        <v>-0.156315501531633</v>
+        <v>0.0326032066197752</v>
       </c>
       <c r="M55">
-        <v>0.156031795428883</v>
+        <v>0.128748925789026</v>
       </c>
       <c r="N55">
-        <v>-0.203183815757757</v>
+        <v>22.1461446929559</v>
       </c>
       <c r="O55" t="s">
         <v>43</v>
       </c>
       <c r="P55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q55">
         <v>1795602</v>
@@ -4438,16 +4453,16 @@
         <v>5692831</v>
       </c>
       <c r="S55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4455,10 +4470,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4467,37 +4482,37 @@
         <v>39</v>
       </c>
       <c r="F56">
-        <v>0.094443738769769</v>
+        <v>0.9352243235477961</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.491</v>
+        <v>110.53</v>
       </c>
       <c r="K56">
-        <v>-0.0117757087270706</v>
+        <v>4.22872206690896</v>
       </c>
       <c r="L56">
-        <v>-0.0245059942110331</v>
+        <v>-0.982429445353754</v>
       </c>
       <c r="M56">
-        <v>0.0027472033377575</v>
+        <v>13.4596819311784</v>
       </c>
       <c r="N56">
-        <v>-2.39831134970888</v>
+        <v>3.82585910332847</v>
       </c>
       <c r="O56" t="s">
         <v>43</v>
       </c>
       <c r="P56" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q56">
         <v>1795602</v>
@@ -4506,16 +4521,16 @@
         <v>5692831</v>
       </c>
       <c r="S56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4523,10 +4538,10 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4535,37 +4550,37 @@
         <v>39</v>
       </c>
       <c r="F57">
-        <v>0.125859156058153</v>
+        <v>0.986256831944245</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>108</v>
+        <v>4.89</v>
       </c>
       <c r="K57">
-        <v>-0.582569420927869</v>
+        <v>0.828257508735033</v>
       </c>
       <c r="L57">
-        <v>-1.49808776795879</v>
+        <v>0.116246976853705</v>
       </c>
       <c r="M57">
-        <v>0.0762419260762519</v>
+        <v>1.1362646282287</v>
       </c>
       <c r="N57">
-        <v>-0.539416130488768</v>
+        <v>16.9377813647246</v>
       </c>
       <c r="O57" t="s">
         <v>43</v>
       </c>
       <c r="P57" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q57">
         <v>1795602</v>
@@ -4574,16 +4589,16 @@
         <v>5692831</v>
       </c>
       <c r="S57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4591,10 +4606,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -4603,7 +4618,7 @@
         <v>39</v>
       </c>
       <c r="F58">
-        <v>0.292035183472753</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4615,25 +4630,25 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>5.2</v>
+        <v>0.462</v>
       </c>
       <c r="K58">
-        <v>-0.0287436762225971</v>
+        <v>0.0053911439114391</v>
       </c>
       <c r="L58">
-        <v>-0.162331504780276</v>
+        <v>-0.0233701055852023</v>
       </c>
       <c r="M58">
-        <v>0.07470267463686781</v>
+        <v>0.0402410817122427</v>
       </c>
       <c r="N58">
-        <v>-0.552763004280713</v>
+        <v>1.16691426654526</v>
       </c>
       <c r="O58" t="s">
         <v>43</v>
       </c>
       <c r="P58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q58">
         <v>1795602</v>
@@ -4642,16 +4657,16 @@
         <v>5692831</v>
       </c>
       <c r="S58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4662,7 +4677,7 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -4671,55 +4686,395 @@
         <v>39</v>
       </c>
       <c r="F59">
-        <v>0.062976174531352</v>
+        <v>0.925443472430922</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>106.5</v>
+      </c>
+      <c r="K59">
+        <v>0.922801171221417</v>
+      </c>
+      <c r="L59">
+        <v>-0.1228352556449</v>
+      </c>
+      <c r="M59">
+        <v>3.66653623492593</v>
+      </c>
+      <c r="N59">
+        <v>0.866479972977856</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59">
+        <v>1795602</v>
+      </c>
+      <c r="R59">
+        <v>5692831</v>
+      </c>
+      <c r="S59" t="s">
+        <v>57</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>4.975</v>
+      </c>
+      <c r="K60">
+        <v>0.152291524265209</v>
+      </c>
+      <c r="L60">
+        <v>-0.0485451804055231</v>
+      </c>
+      <c r="M60">
+        <v>0.373785225679089</v>
+      </c>
+      <c r="N60">
+        <v>3.06113616613485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60">
+        <v>1795602</v>
+      </c>
+      <c r="R60">
+        <v>5692831</v>
+      </c>
+      <c r="S60" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61">
+        <v>0.310345358537677</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.499</v>
+      </c>
+      <c r="K61">
+        <v>-0.0064531802120141</v>
+      </c>
+      <c r="L61">
+        <v>-0.0211078979861457</v>
+      </c>
+      <c r="M61">
+        <v>0.0074477730255939</v>
+      </c>
+      <c r="N61">
+        <v>-1.29322248737758</v>
+      </c>
+      <c r="O61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q61">
+        <v>1795602</v>
+      </c>
+      <c r="R61">
+        <v>5692831</v>
+      </c>
+      <c r="S61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>0.326893502261023</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>110</v>
+      </c>
+      <c r="K62">
+        <v>-0.25577731092437</v>
+      </c>
+      <c r="L62">
+        <v>-1.49808776795879</v>
+      </c>
+      <c r="M62">
+        <v>0.644164921303188</v>
+      </c>
+      <c r="N62">
+        <v>-0.232524828113063</v>
+      </c>
+      <c r="O62" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q62">
+        <v>1795602</v>
+      </c>
+      <c r="R62">
+        <v>5692831</v>
+      </c>
+      <c r="S62" t="s">
+        <v>57</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63">
+        <v>15</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63">
+        <v>0.539420674887488</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>5.37</v>
+      </c>
+      <c r="K63">
+        <v>0.0044788473329245</v>
+      </c>
+      <c r="L63">
+        <v>-0.113840198991745</v>
+      </c>
+      <c r="M63">
+        <v>0.1421627886437</v>
+      </c>
+      <c r="N63">
+        <v>0.08340497826675219</v>
+      </c>
+      <c r="O63" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63">
+        <v>1795602</v>
+      </c>
+      <c r="R63">
+        <v>5692831</v>
+      </c>
+      <c r="S63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <v>0.360117031218846</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>0.75</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>110.265</v>
       </c>
-      <c r="K59">
-        <v>-0.404498100370592</v>
-      </c>
-      <c r="L59">
-        <v>-0.793980071064981</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>-0.366841790568714</v>
-      </c>
-      <c r="O59" t="s">
-        <v>43</v>
-      </c>
-      <c r="P59" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q59">
-        <v>1795602</v>
-      </c>
-      <c r="R59">
-        <v>5692831</v>
-      </c>
-      <c r="S59" t="s">
-        <v>56</v>
-      </c>
-      <c r="T59" t="s">
-        <v>57</v>
-      </c>
-      <c r="U59" t="s">
-        <v>58</v>
-      </c>
-      <c r="V59" t="s">
-        <v>59</v>
+      <c r="K64">
+        <v>-0.031567691747008</v>
+      </c>
+      <c r="L64">
+        <v>-0.630121137975579</v>
+      </c>
+      <c r="M64">
+        <v>0.498201643940131</v>
+      </c>
+      <c r="N64">
+        <v>-0.0286289318886392</v>
+      </c>
+      <c r="O64" t="s">
+        <v>43</v>
+      </c>
+      <c r="P64" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q64">
+        <v>1795602</v>
+      </c>
+      <c r="R64">
+        <v>5692831</v>
+      </c>
+      <c r="S64" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
